--- a/Results/RNN_Autoencoder_ClinicalData/Lambda_Abstain_Instances_Fold_20.xlsx
+++ b/Results/RNN_Autoencoder_ClinicalData/Lambda_Abstain_Instances_Fold_20.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="6">
   <si>
     <t>Lambda Threshold</t>
   </si>
@@ -26,6 +26,9 @@
   </si>
   <si>
     <t>[]</t>
+  </si>
+  <si>
+    <t>[(0, 1)]</t>
   </si>
   <si>
     <t>Signal_39s</t>
@@ -411,7 +414,7 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -419,10 +422,10 @@
         <v>0.55</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -430,10 +433,10 @@
         <v>0.6</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -441,10 +444,10 @@
         <v>0.65</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -452,10 +455,10 @@
         <v>0.7</v>
       </c>
       <c r="B6" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -463,10 +466,10 @@
         <v>0.75</v>
       </c>
       <c r="B7" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -474,10 +477,10 @@
         <v>0.8</v>
       </c>
       <c r="B8" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -485,10 +488,10 @@
         <v>0.85</v>
       </c>
       <c r="B9" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -496,10 +499,10 @@
         <v>0.9</v>
       </c>
       <c r="B10" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Results/RNN_Autoencoder_ClinicalData/Lambda_Abstain_Instances_Fold_20.xlsx
+++ b/Results/RNN_Autoencoder_ClinicalData/Lambda_Abstain_Instances_Fold_20.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="5">
   <si>
     <t>Lambda Threshold</t>
   </si>
@@ -26,9 +26,6 @@
   </si>
   <si>
     <t>[]</t>
-  </si>
-  <si>
-    <t>[(0, 1)]</t>
   </si>
   <si>
     <t>Signal_39s</t>
@@ -414,7 +411,7 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -422,10 +419,10 @@
         <v>0.55</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -433,10 +430,10 @@
         <v>0.6</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -444,10 +441,10 @@
         <v>0.65</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -455,10 +452,10 @@
         <v>0.7</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -466,10 +463,10 @@
         <v>0.75</v>
       </c>
       <c r="B7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -477,10 +474,10 @@
         <v>0.8</v>
       </c>
       <c r="B8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -488,10 +485,10 @@
         <v>0.85</v>
       </c>
       <c r="B9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -499,10 +496,10 @@
         <v>0.9</v>
       </c>
       <c r="B10" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C10" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
